--- a/castle_LCS_Analysis2.xlsx
+++ b/castle_LCS_Analysis2.xlsx
@@ -453,7 +453,7 @@
         <v>236676</v>
       </c>
       <c r="C2" t="n">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="3">
@@ -464,7 +464,7 @@
         <v>314427</v>
       </c>
       <c r="C3" t="n">
-        <v>0.34</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="4">
@@ -475,7 +475,7 @@
         <v>434544</v>
       </c>
       <c r="C4" t="n">
-        <v>0.46</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="5">
@@ -486,7 +486,7 @@
         <v>505494</v>
       </c>
       <c r="C5" t="n">
-        <v>0.54</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="6">
@@ -497,7 +497,7 @@
         <v>743992</v>
       </c>
       <c r="C6" t="n">
-        <v>0.79</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="7">
@@ -508,7 +508,7 @@
         <v>892078</v>
       </c>
       <c r="C7" t="n">
-        <v>0.95</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="8">
@@ -519,7 +519,7 @@
         <v>1355618</v>
       </c>
       <c r="C8" t="n">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="9">
@@ -530,7 +530,7 @@
         <v>1738260</v>
       </c>
       <c r="C9" t="n">
-        <v>1.83</v>
+        <v>1.93</v>
       </c>
     </row>
     <row r="10">
@@ -538,10 +538,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1907323</v>
+        <v>2006628</v>
       </c>
       <c r="C10" t="n">
-        <v>2.02</v>
+        <v>2.12</v>
       </c>
     </row>
     <row r="11">
@@ -549,10 +549,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1708716</v>
+        <v>1907323</v>
       </c>
       <c r="C11" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
     </row>
     <row r="12">
@@ -560,10 +560,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>2082636</v>
+        <v>2044260</v>
       </c>
       <c r="C12" t="n">
-        <v>2.24</v>
+        <v>2.37</v>
       </c>
     </row>
     <row r="13">
@@ -571,10 +571,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>2044260</v>
+        <v>2082636</v>
       </c>
       <c r="C13" t="n">
-        <v>2.28</v>
+        <v>2.53</v>
       </c>
     </row>
     <row r="14">
@@ -582,10 +582,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>2735375</v>
+        <v>2540148</v>
       </c>
       <c r="C14" t="n">
-        <v>3.01</v>
+        <v>2.72</v>
       </c>
     </row>
     <row r="15">
@@ -593,10 +593,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>2896179</v>
+        <v>1708716</v>
       </c>
       <c r="C15" t="n">
-        <v>3.17</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="16">
@@ -604,10 +604,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>3134325</v>
+        <v>2735375</v>
       </c>
       <c r="C16" t="n">
-        <v>3.46</v>
+        <v>2.96</v>
       </c>
     </row>
     <row r="17">
@@ -615,10 +615,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>2540148</v>
+        <v>2896179</v>
       </c>
       <c r="C17" t="n">
-        <v>6.1</v>
+        <v>3.08</v>
       </c>
     </row>
     <row r="18">
@@ -626,10 +626,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>2006628</v>
+        <v>3134325</v>
       </c>
       <c r="C18" t="n">
-        <v>8.24</v>
+        <v>3.53</v>
       </c>
     </row>
     <row r="19">
@@ -637,10 +637,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>7524049</v>
+        <v>5223652</v>
       </c>
       <c r="C19" t="n">
-        <v>8.24</v>
+        <v>5.64</v>
       </c>
     </row>
     <row r="20">
@@ -648,10 +648,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>7779148</v>
+        <v>7524049</v>
       </c>
       <c r="C20" t="n">
-        <v>8.67</v>
+        <v>8.1</v>
       </c>
     </row>
     <row r="21">
@@ -659,10 +659,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>8078238</v>
+        <v>7791916</v>
       </c>
       <c r="C21" t="n">
-        <v>8.789999999999999</v>
+        <v>8.390000000000001</v>
       </c>
     </row>
     <row r="22">
@@ -673,7 +673,7 @@
         <v>8304160</v>
       </c>
       <c r="C22" t="n">
-        <v>10.55</v>
+        <v>9.039999999999999</v>
       </c>
     </row>
     <row r="23">
@@ -681,10 +681,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>9564921</v>
+        <v>7779148</v>
       </c>
       <c r="C23" t="n">
-        <v>10.99</v>
+        <v>9.35</v>
       </c>
     </row>
     <row r="24">
@@ -692,10 +692,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>10094766</v>
+        <v>8078238</v>
       </c>
       <c r="C24" t="n">
-        <v>11.07</v>
+        <v>9.84</v>
       </c>
     </row>
     <row r="25">
@@ -703,10 +703,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>11533644</v>
+        <v>9564921</v>
       </c>
       <c r="C25" t="n">
-        <v>12.66</v>
+        <v>10.31</v>
       </c>
     </row>
     <row r="26">
@@ -714,10 +714,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>5223652</v>
+        <v>10094766</v>
       </c>
       <c r="C26" t="n">
-        <v>14.82</v>
+        <v>10.84</v>
       </c>
     </row>
     <row r="27">
@@ -725,10 +725,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>12766329</v>
+        <v>11533644</v>
       </c>
       <c r="C27" t="n">
-        <v>14.83</v>
+        <v>12.64</v>
       </c>
     </row>
     <row r="28">
@@ -736,10 +736,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>12954003</v>
+        <v>12524640</v>
       </c>
       <c r="C28" t="n">
-        <v>14.95</v>
+        <v>13.61</v>
       </c>
     </row>
     <row r="29">
@@ -747,10 +747,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>13942531</v>
+        <v>12766329</v>
       </c>
       <c r="C29" t="n">
-        <v>15.37</v>
+        <v>13.81</v>
       </c>
     </row>
     <row r="30">
@@ -758,10 +758,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>12524640</v>
+        <v>12954003</v>
       </c>
       <c r="C30" t="n">
-        <v>15.93</v>
+        <v>14.02</v>
       </c>
     </row>
     <row r="31">
@@ -769,10 +769,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>7791916</v>
+        <v>12954003</v>
       </c>
       <c r="C31" t="n">
-        <v>18.08</v>
+        <v>14.05</v>
       </c>
     </row>
     <row r="32">
@@ -780,10 +780,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>18325112</v>
+        <v>13942531</v>
       </c>
       <c r="C32" t="n">
-        <v>20.33</v>
+        <v>15.05</v>
       </c>
     </row>
     <row r="33">
@@ -791,10 +791,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>22980411</v>
+        <v>18325112</v>
       </c>
       <c r="C33" t="n">
-        <v>25.36</v>
+        <v>20.05</v>
       </c>
     </row>
     <row r="34">
@@ -802,10 +802,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>12954003</v>
+        <v>22980411</v>
       </c>
       <c r="C34" t="n">
-        <v>30.88</v>
+        <v>25.76</v>
       </c>
     </row>
     <row r="35">
@@ -813,10 +813,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>35625700</v>
+        <v>22980411</v>
       </c>
       <c r="C35" t="n">
-        <v>39.53</v>
+        <v>25.83</v>
       </c>
     </row>
     <row r="36">
@@ -824,10 +824,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>38596450</v>
+        <v>35625700</v>
       </c>
       <c r="C36" t="n">
-        <v>43.15</v>
+        <v>38.82</v>
       </c>
     </row>
     <row r="37">
@@ -835,10 +835,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>38901246</v>
+        <v>37423804</v>
       </c>
       <c r="C37" t="n">
-        <v>43.31</v>
+        <v>41.09</v>
       </c>
     </row>
     <row r="38">
@@ -846,10 +846,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>37423804</v>
+        <v>38901246</v>
       </c>
       <c r="C38" t="n">
-        <v>45.4</v>
+        <v>42.63</v>
       </c>
     </row>
     <row r="39">
@@ -857,10 +857,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>22980411</v>
+        <v>38596450</v>
       </c>
       <c r="C39" t="n">
-        <v>51.68</v>
+        <v>47.31</v>
       </c>
     </row>
   </sheetData>
